--- a/python-in-excel-first-matplotlib-plot-demo.xlsx
+++ b/python-in-excel-first-matplotlib-plot-demo.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E6006F-3121-4F6E-B133-25CDCDAD9D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B15D06B-F986-45E6-B1B8-0F423024058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" xr2:uid="{22D6BC28-A978-419B-BCF6-3F50B738FF3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gantt" sheetId="1" r:id="rId1"/>
+    <sheet name="waterfall" sheetId="2" r:id="rId2"/>
+    <sheet name="dumbbell" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">waterfall!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">waterfall!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">waterfall!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">waterfall!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">waterfall!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">waterfall!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">waterfall!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">waterfall!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">waterfall!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">waterfall!$C$2:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,6 +47,283 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="9">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="9">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>from matplotlib.dates import date2num
+gantt_df = xl(%P2%, headers=True)
+# Plot Gantt chart
+fig, ax = plt.subplots(figsize=(10, 6))
+# Define positions for the tasks on the y-axis
+y_positions = range(len(gantt_df))
+# Create bars for each task
+for i, task in enumerate(gantt_df.itertuples()):
+    ax.barh(y=i, width=(task.End - task.Start).days, left=date2num(task.Start), height=0.5, align='center', color='skyblue')
+# Customize the plot
+ax.set_yticks(y_positions)
+ax.set_yticklabels(gantt_df['Task'])
+ax.xaxis_date()  # Format x-axis as dates
+ax.set_xlabel("Date")
+ax.set_ylabel("Tasks")
+ax.set_title("Gantt Chart")</code>
+    </pythonScript>
+    <pythonScript>
+      <code>waterfall_df = xl(%P2%, headers=True)
+# Calculate cumulative values for the waterfall chart
+waterfall_df["Previous"] = waterfall_df["Cumulative"].shift(1).fillna(0)
+waterfall_df
+waterfall_df["Color"] = waterfall_df["Value"].apply(lambda x: "gray" if x &gt; 0 else "red")
+waterfall_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve"># Plot waterfall chart
+fig, ax = plt.subplots(figsize=(10, 6))
+# Draw bars
+for index, row in waterfall_df.iterrows():
+    ax.bar(row["Category"], row["Value"], bottom=row["Previous"], color=row["Color"], edgecolor="black")
+# Add labels to bars
+for index, row in waterfall_df.iterrows():
+    y_pos = row["Previous"] + (row["Value"] / 2)
+    ax.text(row["Category"], y_pos, f'{row["Value"]:+}', ha="center", va="center")
+# Customize plot
+ax.axhline(0, color="black", linewidth=0.8, linestyle="--")
+ax.set_title("Waterfall Chart")
+ax.set_ylabel("Value")
+ax.set_xlabel("Category")
+plt.xticks(rotation=45)
+plt.tight_layout()
+# Show plot
+plt.show()
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code>dumbbell_df = xl(%P2%, headers=True)
+# Plot Dumbbell Chart
+fig, ax = plt.subplots(figsize=(8, 5))
+# Offset for the gray line to stop before entering the dots
+line_offset = 2  # Adjust this value as needed
+# Plot lines connecting before and after values with an offset
+ax.hlines(dumbbell_df.index, 
+          dumbbell_df['Before'] + line_offset, 
+          dumbbell_df['After'] - line_offset, 
+          color='gray', linewidth=2)
+# Scatter points for 'Before' and 'After' with larger size
+dot_size = 700  # Increase the dot size
+ax.scatter(dumbbell_df['Before'], dumbbell_df.index, color='blue', label='Before', s=dot_size)
+ax.scatter(dumbbell_df['After'], dumbbell_df.index, color='green', label='After', s=dot_size)
+# Add value labels inside the dots
+for i in range(len(dumbbell_df)):
+    ax.text(dumbbell_df['Before'][i], i, f"{dumbbell_df['Before'][i]:.1f}", 
+            color='white', ha='center', va='center', fontsize=10, fontweight='bold')
+    ax.text(dumbbell_df['After'][i], i, f"{dumbbell_df['After'][i]:.1f}", 
+            color='white', ha='center', va='center', fontsize=10, fontweight='bold')
+# Labels and formatting
+ax.set_yticks(dumbbell_df.index)
+ax.set_yticklabels(dumbbell_df['Category'])
+ax.set_xlabel('Value')
+ax.set_title('Dumbbell Chart Example')
+# Adjust ylim to add vertical space
+ax.set_ylim(-0.5, len(dumbbell_df) - 0.5)</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Task A</t>
+  </si>
+  <si>
+    <t>Task B</t>
+  </si>
+  <si>
+    <t>Task C</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +374,341 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694AE854-76A3-2464-6412-C67F1413C817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="gantt!A8"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="908050" y="1625600"/>
+          <a:ext cx="7223774" cy="4480569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>713821</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>37539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEC1855-0583-419F-BBA2-33C5DA1E64EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="waterfall!A17"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="976312" y="5167312"/>
+          <a:ext cx="9043434" cy="5385827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDB5E92-5FF5-2A93-FE6C-DF8642EEB654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="dumbbell!A7"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="1033462"/>
+          <a:ext cx="5681663" cy="3713712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+  <rv s="0">
+    <fb>45292</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45298</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45296</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45303</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45301</fb>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <fb>45306</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B7EFECA-AFBC-4C07-9711-A81979D63037}" name="tasks" displayName="tasks" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{9B7EFECA-AFBC-4C07-9711-A81979D63037}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{997A561F-BD3E-4CC5-9C39-94F3AF845840}" name="Task"/>
+    <tableColumn id="2" xr3:uid="{CAA0AE6F-4D34-4390-9D1C-16700C7BD127}" name="Start"/>
+    <tableColumn id="3" xr3:uid="{9D91DA0D-FB18-4E8B-8B44-004A8C00277B}" name="End"/>
+    <tableColumn id="4" xr3:uid="{09E869B9-F4A9-451C-AB4E-F9E1707AEB70}" name="Duration"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DA6C77A-7077-42CA-A305-2577B9561C0C}" name="waterfall" displayName="waterfall" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{5DA6C77A-7077-42CA-A305-2577B9561C0C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B577DD5D-5FCC-42D8-936A-0B3A483B4058}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{7C79802F-9EFE-491F-B810-D6678F377044}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{6353A169-9B46-439E-BBD8-0E7BA5E2FBA1}" name="Cumulative"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F666993D-DFE2-4303-A292-6B272A2128A8}" name="dumbbell" displayName="dumbbell" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{F666993D-DFE2-4303-A292-6B272A2128A8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{66773417-EC43-4CEF-97AE-0E9C27A60A88}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{6CD64BA8-33FF-4227-8BEA-EBBB810AB286}" name="Before"/>
+    <tableColumn id="3" xr3:uid="{599605DE-955F-475F-8553-3B3927D3208D}" name="After"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +1028,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0DB77-96F5-4CF2-A2ED-2076B7D81B9E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" vm="1">
+        <v>45292</v>
+      </c>
+      <c r="C2" vm="2">
+        <v>45298</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" vm="3">
+        <v>45296</v>
+      </c>
+      <c r="C3" vm="4">
+        <v>45303</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" vm="5">
+        <v>45301</v>
+      </c>
+      <c r="C4" vm="6">
+        <v>45306</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="e" cm="1" vm="7">
+        <f t="array" ref="A8">_xlfn._xlws.PY(0,0,tasks[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83377B0-852C-4CFC-B69A-0296C4AF2D4C}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.20703125" customWidth="1"/>
+    <col min="9" max="9" width="11.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>-200</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>-100</v>
+      </c>
+      <c r="C5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1100</v>
+      </c>
+      <c r="C6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:E14">_xlfn._xlws.PY(1,0,waterfall[#All])</f>
+        <v>Category</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Value</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cumulative</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Previous</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Color</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="str">
+        <v>Start</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <v>1400</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11" t="str">
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="B12">
+        <v>-200</v>
+      </c>
+      <c r="C12">
+        <v>1200</v>
+      </c>
+      <c r="D12">
+        <v>1400</v>
+      </c>
+      <c r="E12" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="str">
+        <v>Tax</v>
+      </c>
+      <c r="B13">
+        <v>-100</v>
+      </c>
+      <c r="C13">
+        <v>1100</v>
+      </c>
+      <c r="D13">
+        <v>1200</v>
+      </c>
+      <c r="E13" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="str">
+        <v>Profit</v>
+      </c>
+      <c r="B14">
+        <v>1100</v>
+      </c>
+      <c r="C14">
+        <v>2200</v>
+      </c>
+      <c r="D14">
+        <v>1100</v>
+      </c>
+      <c r="E14" t="str">
+        <v>gray</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="e" cm="1" vm="8">
+        <f t="array" ref="A17">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DAED2D-02EA-4666-BE9E-203DD010EA4B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.20703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="e" cm="1" vm="9">
+        <f t="array" ref="A7">_xlfn._xlws.PY(3,0,dumbbell[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>